--- a/results_directory/Semi_tryptic_peptides_summary.xlsx
+++ b/results_directory/Semi_tryptic_peptides_summary.xlsx
@@ -1749,16 +1749,16 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>0.8297872340425532</v>
+        <v>0.5668953687821612</v>
       </c>
       <c r="D2">
-        <v>0.3771594359439792</v>
+        <v>0.4957174202272204</v>
       </c>
       <c r="E2">
-        <v>0.03176255435285872</v>
+        <v>0.01451726838052483</v>
       </c>
       <c r="F2">
-        <v>141</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1769,16 +1769,16 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>0.7636363636363637</v>
+        <v>0.4605568445475638</v>
       </c>
       <c r="D3">
-        <v>0.4267924474038492</v>
+        <v>0.498731180706913</v>
       </c>
       <c r="E3">
-        <v>0.04069306319721375</v>
+        <v>0.01698685142563236</v>
       </c>
       <c r="F3">
-        <v>110</v>
+        <v>862</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1789,16 +1789,16 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>0.7368421052631579</v>
+        <v>0.4043778801843318</v>
       </c>
       <c r="D4">
-        <v>0.4426834591633138</v>
+        <v>0.4910541870269052</v>
       </c>
       <c r="E4">
-        <v>0.04541836459277324</v>
+        <v>0.01666746515510404</v>
       </c>
       <c r="F4">
-        <v>95</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1809,16 +1809,16 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>0.8311688311688312</v>
+        <v>0.4153757888697648</v>
       </c>
       <c r="D5">
-        <v>0.3758249280429575</v>
+        <v>0.4929281338633579</v>
       </c>
       <c r="E5">
-        <v>0.03028483574702009</v>
+        <v>0.01180687356701319</v>
       </c>
       <c r="F5">
-        <v>154</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1829,16 +1829,16 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>0.6666666666666666</v>
+        <v>0.3549618320610687</v>
       </c>
       <c r="D6">
-        <v>0.4758309514308865</v>
+        <v>0.4789589955118528</v>
       </c>
       <c r="E6">
-        <v>0.06475239082381759</v>
+        <v>0.02092342086765011</v>
       </c>
       <c r="F6">
-        <v>54</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1849,16 +1849,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.4126984126984127</v>
+        <v>0.2435424354243542</v>
       </c>
       <c r="D7">
-        <v>0.4962738784348765</v>
+        <v>0.429616169067875</v>
       </c>
       <c r="E7">
-        <v>0.06252463164362779</v>
+        <v>0.01845359457201586</v>
       </c>
       <c r="F7">
-        <v>63</v>
+        <v>542</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1869,16 +1869,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0.4722222222222222</v>
+        <v>0.2574430823117338</v>
       </c>
       <c r="D8">
-        <v>0.5027311947224927</v>
+        <v>0.4376088674575734</v>
       </c>
       <c r="E8">
-        <v>0.05924743948371486</v>
+        <v>0.01831336113149554</v>
       </c>
       <c r="F8">
-        <v>72</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1889,16 +1889,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.2709497206703911</v>
       </c>
       <c r="D9">
-        <v>0.5030030300035687</v>
+        <v>0.4447608836468195</v>
       </c>
       <c r="E9">
-        <v>0.05488212999484517</v>
+        <v>0.01662149461604976</v>
       </c>
       <c r="F9">
-        <v>84</v>
+        <v>716</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1909,16 +1909,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0.6428571428571429</v>
+        <v>0.261373035566584</v>
       </c>
       <c r="D10">
-        <v>0.4813109511118894</v>
+        <v>0.4395645429113911</v>
       </c>
       <c r="E10">
-        <v>0.04547960999764376</v>
+        <v>0.01264181710067947</v>
       </c>
       <c r="F10">
-        <v>112</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1929,16 +1929,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0.3225806451612903</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="D11">
-        <v>0.4751909633114915</v>
+        <v>0.3636555803718477</v>
       </c>
       <c r="E11">
-        <v>0.08534681648595453</v>
+        <v>0.02462986375714134</v>
       </c>
       <c r="F11">
-        <v>31</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1949,16 +1949,16 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8805970149253731</v>
+        <v>0.7642585551330798</v>
       </c>
       <c r="D12">
-        <v>0.3267094000976502</v>
+        <v>0.4252705937779563</v>
       </c>
       <c r="E12">
-        <v>0.03991390587591175</v>
+        <v>0.02622330820622257</v>
       </c>
       <c r="F12">
-        <v>67</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1969,16 +1969,16 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8620689655172413</v>
+        <v>0.7014925373134329</v>
       </c>
       <c r="D13">
-        <v>0.3478392380269825</v>
+        <v>0.4587458568685168</v>
       </c>
       <c r="E13">
-        <v>0.04567352955396703</v>
+        <v>0.03235743789355043</v>
       </c>
       <c r="F13">
-        <v>58</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1989,16 +1989,16 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8653846153846154</v>
+        <v>0.7208121827411168</v>
       </c>
       <c r="D14">
-        <v>0.3446422500840349</v>
+        <v>0.4497429540846445</v>
       </c>
       <c r="E14">
-        <v>0.04779328093727964</v>
+        <v>0.03204285873137881</v>
       </c>
       <c r="F14">
-        <v>52</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2009,16 +2009,16 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8933333333333333</v>
+        <v>0.7305389221556886</v>
       </c>
       <c r="D15">
-        <v>0.3107677212591047</v>
+        <v>0.4443455321413393</v>
       </c>
       <c r="E15">
-        <v>0.03588436550487813</v>
+        <v>0.02431350576688918</v>
       </c>
       <c r="F15">
-        <v>75</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2029,16 +2029,16 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8823529411764706</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D16">
-        <v>0.3321055820775358</v>
+        <v>0.4204374825912608</v>
       </c>
       <c r="E16">
-        <v>0.08054743492723031</v>
+        <v>0.06267511942419625</v>
       </c>
       <c r="F16">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2049,16 +2049,16 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>0.7333333333333333</v>
+        <v>0.4511278195488722</v>
       </c>
       <c r="D17">
-        <v>0.4497764451088036</v>
+        <v>0.4994870916755633</v>
       </c>
       <c r="E17">
-        <v>0.08211756827352532</v>
+        <v>0.04331102368404888</v>
       </c>
       <c r="F17">
-        <v>30</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2069,16 +2069,16 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>0.6896551724137931</v>
+        <v>0.3786407766990291</v>
       </c>
       <c r="D18">
-        <v>0.4708236154307583</v>
+        <v>0.4874202771287357</v>
       </c>
       <c r="E18">
-        <v>0.08742975048915692</v>
+        <v>0.04802694698258973</v>
       </c>
       <c r="F18">
-        <v>29</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2089,16 +2089,16 @@
         <v>12</v>
       </c>
       <c r="C19">
-        <v>0.7666666666666667</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="D19">
-        <v>0.4301830671520763</v>
+        <v>0.4959924420775139</v>
       </c>
       <c r="E19">
-        <v>0.07854032324531729</v>
+        <v>0.04104862657656189</v>
       </c>
       <c r="F19">
-        <v>30</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2109,16 +2109,16 @@
         <v>13</v>
       </c>
       <c r="C20">
-        <v>0.7962962962962963</v>
+        <v>0.3388090349075976</v>
       </c>
       <c r="D20">
-        <v>0.4065329539256727</v>
+        <v>0.4737915301845117</v>
       </c>
       <c r="E20">
-        <v>0.0553221278191268</v>
+        <v>0.02146954359089146</v>
       </c>
       <c r="F20">
-        <v>54</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2129,16 +2129,16 @@
         <v>14</v>
       </c>
       <c r="C21">
-        <v>0.625</v>
+        <v>0.2439024390243902</v>
       </c>
       <c r="D21">
-        <v>0.5</v>
+        <v>0.431190943490353</v>
       </c>
       <c r="E21">
-        <v>0.125</v>
+        <v>0.03887917804888517</v>
       </c>
       <c r="F21">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/results_directory/Semi_tryptic_peptides_summary.xlsx
+++ b/results_directory/Semi_tryptic_peptides_summary.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="40">
   <si>
     <t>Protein_ID</t>
   </si>
@@ -118,13 +118,25 @@
     <t>Std_Error</t>
   </si>
   <si>
+    <t>Total_Tryptic</t>
+  </si>
+  <si>
+    <t>Total_Semi_tryptic</t>
+  </si>
+  <si>
+    <t>Total_Peptides</t>
+  </si>
+  <si>
+    <t>Total_equals_Sum_Check</t>
+  </si>
+  <si>
+    <t>Global_Semi-tryptic Peptides Ratio</t>
+  </si>
+  <si>
+    <t>Mean_Global_Ratio</t>
+  </si>
+  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Global_Semi-tryptic Peptides Ratio</t>
-  </si>
-  <si>
-    <t>Mean_Global_Ratio</t>
   </si>
 </sst>
 </file>
@@ -1715,13 +1727,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1740,8 +1752,17 @@
       <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1758,10 +1779,19 @@
         <v>0.01451726838052483</v>
       </c>
       <c r="F2">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>792</v>
+      </c>
+      <c r="G2">
+        <v>1017</v>
+      </c>
+      <c r="H2">
+        <v>1809</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1778,10 +1808,19 @@
         <v>0.01698685142563236</v>
       </c>
       <c r="F3">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>751</v>
+      </c>
+      <c r="G3">
+        <v>618</v>
+      </c>
+      <c r="H3">
+        <v>1369</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1798,10 +1837,19 @@
         <v>0.01666746515510404</v>
       </c>
       <c r="F4">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>853</v>
+      </c>
+      <c r="G4">
+        <v>726</v>
+      </c>
+      <c r="H4">
+        <v>1579</v>
+      </c>
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1818,10 +1866,19 @@
         <v>0.01180687356701319</v>
       </c>
       <c r="F5">
-        <v>1743</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>1531</v>
+      </c>
+      <c r="G5">
+        <v>1151</v>
+      </c>
+      <c r="H5">
+        <v>2682</v>
+      </c>
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1838,10 +1895,19 @@
         <v>0.02092342086765011</v>
       </c>
       <c r="F6">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>546</v>
+      </c>
+      <c r="G6">
+        <v>335</v>
+      </c>
+      <c r="H6">
+        <v>881</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1858,10 +1924,19 @@
         <v>0.01845359457201586</v>
       </c>
       <c r="F7">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>565</v>
+      </c>
+      <c r="G7">
+        <v>137</v>
+      </c>
+      <c r="H7">
+        <v>702</v>
+      </c>
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1878,10 +1953,19 @@
         <v>0.01831336113149554</v>
       </c>
       <c r="F8">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>580</v>
+      </c>
+      <c r="G8">
+        <v>176</v>
+      </c>
+      <c r="H8">
+        <v>756</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1898,10 +1982,19 @@
         <v>0.01662149461604976</v>
       </c>
       <c r="F9">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>708</v>
+      </c>
+      <c r="G9">
+        <v>222</v>
+      </c>
+      <c r="H9">
+        <v>930</v>
+      </c>
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1918,10 +2011,19 @@
         <v>0.01264181710067947</v>
       </c>
       <c r="F10">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>1096</v>
+      </c>
+      <c r="G10">
+        <v>344</v>
+      </c>
+      <c r="H10">
+        <v>1440</v>
+      </c>
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1938,10 +2040,19 @@
         <v>0.02462986375714134</v>
       </c>
       <c r="F11">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>222</v>
+      </c>
+      <c r="G11">
+        <v>34</v>
+      </c>
+      <c r="H11">
+        <v>256</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1958,10 +2069,19 @@
         <v>0.02622330820622257</v>
       </c>
       <c r="F12">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>68</v>
+      </c>
+      <c r="G12">
+        <v>231</v>
+      </c>
+      <c r="H12">
+        <v>299</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1978,10 +2098,19 @@
         <v>0.03235743789355043</v>
       </c>
       <c r="F13">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>68</v>
+      </c>
+      <c r="G13">
+        <v>146</v>
+      </c>
+      <c r="H13">
+        <v>214</v>
+      </c>
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1998,10 +2127,19 @@
         <v>0.03204285873137881</v>
       </c>
       <c r="F14">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G14">
+        <v>145</v>
+      </c>
+      <c r="H14">
+        <v>206</v>
+      </c>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2018,10 +2156,19 @@
         <v>0.02431350576688918</v>
       </c>
       <c r="F15">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>92</v>
+      </c>
+      <c r="G15">
+        <v>256</v>
+      </c>
+      <c r="H15">
+        <v>348</v>
+      </c>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2038,10 +2185,19 @@
         <v>0.06267511942419625</v>
       </c>
       <c r="F16">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G16">
+        <v>36</v>
+      </c>
+      <c r="H16">
+        <v>46</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2058,10 +2214,19 @@
         <v>0.04331102368404888</v>
       </c>
       <c r="F17">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>95</v>
+      </c>
+      <c r="G17">
+        <v>61</v>
+      </c>
+      <c r="H17">
+        <v>156</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2078,10 +2243,19 @@
         <v>0.04802694698258973</v>
       </c>
       <c r="F18">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>81</v>
+      </c>
+      <c r="G18">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <v>121</v>
+      </c>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -2098,10 +2272,19 @@
         <v>0.04104862657656189</v>
       </c>
       <c r="F19">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>113</v>
+      </c>
+      <c r="G19">
+        <v>62</v>
+      </c>
+      <c r="H19">
+        <v>175</v>
+      </c>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -2118,10 +2301,19 @@
         <v>0.02146954359089146</v>
       </c>
       <c r="F20">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>609</v>
+      </c>
+      <c r="G20">
+        <v>169</v>
+      </c>
+      <c r="H20">
+        <v>778</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -2138,7 +2330,16 @@
         <v>0.03887917804888517</v>
       </c>
       <c r="F21">
-        <v>123</v>
+        <v>231</v>
+      </c>
+      <c r="G21">
+        <v>30</v>
+      </c>
+      <c r="H21">
+        <v>261</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2168,7 +2369,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2444,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
@@ -2453,7 +2654,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5">
